--- a/data_processing/ford_dealers.xlsx
+++ b/data_processing/ford_dealers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,7 +601,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1975 Eglinton Avenue East Scarborough, ON M1L2N1</t>
+          <t>(000) 000-0000</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Rose City Ford Sales</t>
+          <t>Kennedy Ford Sales</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>7.25 km</t>
+          <t>34.45 km</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6333 Tecumseh Road East Windsor, ON N8T1E7</t>
+          <t>280 South Service Rd W. Oakville, ON L6K2H3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(519) 948-7800</t>
+          <t>(905) 845-1646</t>
         </is>
       </c>
     </row>
@@ -986,22 +986,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Performance Ford Sales Inc.</t>
+          <t>Fines Ford Lincoln Sales</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7.28 km</t>
+          <t>34.47 km</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1150 Provincial Road Windsor, ON N8W5W2</t>
+          <t>10 Simona Drive Bolton, ON L7E4C7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(519) 972-6500</t>
+          <t>(800) 781-3463</t>
         </is>
       </c>
     </row>
@@ -1011,22 +1011,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ken Knapp Ford Sales</t>
+          <t>Mayfield Ford Lincoln</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>22.72 km</t>
+          <t>34.93 km</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>390 Talbot St North Essex, ON N8M2W4</t>
+          <t>5 Docksteader Road Brampton, ON L6R3Y2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(519) 776-6447</t>
+          <t>(905) 451-4094</t>
         </is>
       </c>
     </row>
@@ -1036,22 +1036,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Joe Meloche Ford Sales</t>
+          <t>Leggat Stouffville Ford</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>23.24 km</t>
+          <t>36.47 km</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>55 Sandwich Street North Amherstburg, ON N9V2T8</t>
+          <t>5786 Main Street. P.O. Box 1589 Stouffville, ON L4A8A4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(519) 736-5461</t>
+          <t>(905) 640-4541</t>
         </is>
       </c>
     </row>
@@ -1061,22 +1061,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Larry Renaud Ford Sales</t>
+          <t>Concept Ford</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>32.93 km</t>
+          <t>40.2 km</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2560 County Rd 20 Harrow, ON N0R1G0</t>
+          <t>361 Guelph Street (Highway #7 West) Georgetown, ON L7G4B6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>(519) 738-6767</t>
+          <t>(905) 846-4600</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Lally Southpoint Ford</t>
+          <t>Rose City Ford Sales</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>44.1 km</t>
+          <t>7.25 km</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>414 Rocky Rd. Leamington, ON N8H3V5</t>
+          <t>6333 Tecumseh Road East Windsor, ON N8T1E7</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>(877) 945-2012</t>
+          <t>(519) 948-7800</t>
         </is>
       </c>
     </row>
@@ -1111,20 +1111,145 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Performance Ford Sales Inc.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>7.28 km</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1150 Provincial Road Windsor, ON N8W5W2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>(519) 972-6500</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Ken Knapp Ford Sales</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>22.72 km</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>390 Talbot St North Essex, ON N8M2W4</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>(519) 776-6447</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Joe Meloche Ford Sales</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>23.24 km</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>55 Sandwich Street North Amherstburg, ON N9V2T8</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>(519) 736-5461</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Larry Renaud Ford Sales</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>32.93 km</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2560 County Rd 20 Harrow, ON N0R1G0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>(519) 738-6767</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Lally Southpoint Ford</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>44.1 km</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>414 Rocky Rd. Leamington, ON N8H3V5</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>(877) 945-2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>Lally Sales &amp; Service Limited</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>48.71 km</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>78 Mill Street West Tilbury, ON N0P2L0</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>(877) 943-6512</t>
         </is>
